--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_262__Reeval_Taguchi_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_262__Reeval_Taguchi_Modell_1.1.xlsx
@@ -5423,7 +5423,7 @@
                   <c:v>-0.3927125632762909</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.55421447753906</c:v>
+                  <c:v>55.55422210693359</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>59.29470825195312</c:v>
@@ -5441,16 +5441,16 @@
                   <c:v>-0.392915815114975</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.3928841054439545</c:v>
+                  <c:v>-0.3928859829902649</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2.518643617630005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.2559852004051208</c:v>
+                  <c:v>-0.2559814751148224</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49.15916061401367</c:v>
+                  <c:v>49.15916442871094</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-0.392915815114975</c:v>
@@ -5462,22 +5462,22 @@
                   <c:v>25.75169563293457</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.06960487365723</c:v>
+                  <c:v>13.06960773468018</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.3712374866008759</c:v>
+                  <c:v>-0.3712393641471863</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>52.60680389404297</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.3411731421947479</c:v>
+                  <c:v>-0.341174989938736</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.09940704703330994</c:v>
+                  <c:v>-0.09940890967845917</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.2712132036685944</c:v>
+                  <c:v>-0.2712113261222839</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-0.392915815114975</c:v>
@@ -5489,10 +5489,10 @@
                   <c:v>-0.392915815114975</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.3928878307342529</c:v>
+                  <c:v>-0.3928897082805634</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.3929027616977692</c:v>
+                  <c:v>-0.3929064869880676</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-0.392915815114975</c:v>
@@ -5501,13 +5501,13 @@
                   <c:v>49.15840911865234</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.3895255923271179</c:v>
+                  <c:v>-0.3895274698734283</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>48.25243759155273</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.3924384415149689</c:v>
+                  <c:v>-0.39243283867836</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-0.392915815114975</c:v>
@@ -5516,22 +5516,22 @@
                   <c:v>47.24822616577148</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.3928934335708618</c:v>
+                  <c:v>-0.3928953111171722</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.001450538635254</c:v>
+                  <c:v>3.001448631286621</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>51.64474105834961</c:v>
+                  <c:v>51.64473724365234</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-0.392915815114975</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.855910539627075</c:v>
+                  <c:v>3.855905055999756</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>51.59426879882812</c:v>
+                  <c:v>51.59426116943359</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>-0.3928244411945343</c:v>
@@ -5540,7 +5540,7 @@
                   <c:v>45.05428314208984</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.3924291133880615</c:v>
+                  <c:v>-0.3924272358417511</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>-0.3928822576999664</c:v>
@@ -5552,13 +5552,13 @@
                   <c:v>-0.3910379707813263</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.3917074203491211</c:v>
+                  <c:v>-0.3917055726051331</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>54.83992767333984</c:v>
+                  <c:v>54.83992004394531</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.3927647769451141</c:v>
+                  <c:v>-0.3927628993988037</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>52.99941253662109</c:v>
@@ -5570,19 +5570,19 @@
                   <c:v>-0.3506202101707458</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.286510169506073</c:v>
+                  <c:v>-0.2865120470523834</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.2732961773872375</c:v>
+                  <c:v>-0.2732924520969391</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>-0.3929027616977692</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.3928486704826355</c:v>
+                  <c:v>-0.3928468227386475</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.386840283870697</c:v>
+                  <c:v>0.3868421614170074</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>-0.3929064869880676</c:v>
@@ -5591,13 +5591,13 @@
                   <c:v>-0.2967554032802582</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.3928207159042358</c:v>
+                  <c:v>-0.3928225636482239</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>-0.392915815114975</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.3929102122783661</c:v>
+                  <c:v>-0.3929120898246765</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>-0.3926137089729309</c:v>
@@ -5615,64 +5615,64 @@
                   <c:v>-0.3929102122783661</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.3928915858268738</c:v>
+                  <c:v>-0.3928934335708618</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>49.16402053833008</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.392915815114975</c:v>
+                  <c:v>-0.3929139375686646</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>-0.3843321204185486</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.3872822523117065</c:v>
+                  <c:v>-0.3872841000556946</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.3929083645343781</c:v>
+                  <c:v>-0.3929102122783661</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>-0.3885298073291779</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>49.15652084350586</c:v>
+                  <c:v>49.15651702880859</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>46.02582550048828</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.3918025195598602</c:v>
+                  <c:v>-0.3918006718158722</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>-0.3904859721660614</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.3881269991397858</c:v>
+                  <c:v>-0.3881251513957977</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>-0.392915815114975</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.3928412199020386</c:v>
+                  <c:v>-0.392843097448349</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>-0.392915815114975</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.1435487866401672</c:v>
+                  <c:v>-0.1435450613498688</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.375787615776062</c:v>
+                  <c:v>-0.3757857382297516</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.3928897082805634</c:v>
+                  <c:v>-0.3928915858268738</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>-0.392915815114975</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>44.75259017944336</c:v>
+                  <c:v>44.75258636474609</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>-0.392915815114975</c:v>
@@ -6443,7 +6443,7 @@
         <v>48.4769</v>
       </c>
       <c r="F4">
-        <v>55.55421447753906</v>
+        <v>55.55422210693359</v>
       </c>
       <c r="G4">
         <v>72</v>
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-0.3928841054439545</v>
+        <v>-0.3928859829902649</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>-0.2559852004051208</v>
+        <v>-0.2559814751148224</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>50.4351</v>
       </c>
       <c r="F13">
-        <v>49.15916061401367</v>
+        <v>49.15916442871094</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6751,7 +6751,7 @@
         <v>40.625</v>
       </c>
       <c r="F17">
-        <v>13.06960487365723</v>
+        <v>13.06960773468018</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>-0.3712374866008759</v>
+        <v>-0.3712393641471863</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-0.3411731421947479</v>
+        <v>-0.341174989938736</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-0.09940704703330994</v>
+        <v>-0.09940890967845917</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>46.4283</v>
       </c>
       <c r="F22">
-        <v>-0.2712132036685944</v>
+        <v>-0.2712113261222839</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-0.3928878307342529</v>
+        <v>-0.3928897082805634</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-0.3929027616977692</v>
+        <v>-0.3929064869880676</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>-0.3895255923271179</v>
+        <v>-0.3895274698734283</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>-0.3924384415149689</v>
+        <v>-0.39243283867836</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-0.3928934335708618</v>
+        <v>-0.3928953111171722</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>3.001450538635254</v>
+        <v>3.001448631286621</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>48.8804</v>
       </c>
       <c r="F37">
-        <v>51.64474105834961</v>
+        <v>51.64473724365234</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>45.1545</v>
       </c>
       <c r="F39">
-        <v>3.855910539627075</v>
+        <v>3.855905055999756</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>54.5459</v>
       </c>
       <c r="F40">
-        <v>51.59426879882812</v>
+        <v>51.59426116943359</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>-0.3924291133880615</v>
+        <v>-0.3924272358417511</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-0.3917074203491211</v>
+        <v>-0.3917055726051331</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>54.83992767333984</v>
+        <v>54.83992004394531</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>-0.3927647769451141</v>
+        <v>-0.3927628993988037</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-0.286510169506073</v>
+        <v>-0.2865120470523834</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>-0.2732961773872375</v>
+        <v>-0.2732924520969391</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>-0.3928486704826355</v>
+        <v>-0.3928468227386475</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0.386840283870697</v>
+        <v>0.3868421614170074</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-0.3928207159042358</v>
+        <v>-0.3928225636482239</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-0.3929102122783661</v>
+        <v>-0.3929120898246765</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>-0.3928915858268738</v>
+        <v>-0.3928934335708618</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>-0.392915815114975</v>
+        <v>-0.3929139375686646</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>-0.3872822523117065</v>
+        <v>-0.3872841000556946</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>-0.3929083645343781</v>
+        <v>-0.3929102122783661</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>51.39</v>
       </c>
       <c r="F75">
-        <v>49.15652084350586</v>
+        <v>49.15651702880859</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>-0.3918025195598602</v>
+        <v>-0.3918006718158722</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>-0.3881269991397858</v>
+        <v>-0.3881251513957977</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>-0.3928412199020386</v>
+        <v>-0.392843097448349</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>-0.1435487866401672</v>
+        <v>-0.1435450613498688</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-0.375787615776062</v>
+        <v>-0.3757857382297516</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>-0.3928897082805634</v>
+        <v>-0.3928915858268738</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>44.75259017944336</v>
+        <v>44.75258636474609</v>
       </c>
     </row>
     <row r="88" spans="1:6">
